--- a/pytheas_data/modification_sets.xlsx
+++ b/pytheas_data/modification_sets.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrwill/prog/pytheas_tk_interface/pytheas_root/pytheas_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrwill/prog/Pytheas_Folder/Pytheas_Qt_root/Pytheas_Qt/pytheas_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFFEF48-C8FB-D44F-8B27-17282C69BDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECA33C4-24BE-6C4C-B066-E2C603752D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10720" yWindow="500" windowWidth="26800" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="nucleotide_table" sheetId="1" r:id="rId1"/>
+    <sheet name="modification_sets" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1714,7 +1714,7 @@
   <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/pytheas_data/modification_sets.xlsx
+++ b/pytheas_data/modification_sets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrwill/prog/Pytheas_Folder/Pytheas_Qt_root/Pytheas_Qt/pytheas_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECA33C4-24BE-6C4C-B066-E2C603752D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4B0C65-6381-5347-97AF-D9CD23F7F5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10720" yWindow="500" windowWidth="26800" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4400" yWindow="760" windowWidth="34700" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modification_sets" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="286">
   <si>
     <t>1-methyladenosine</t>
   </si>
@@ -867,13 +867,37 @@
   </si>
   <si>
     <t>human_rRNA_set</t>
+  </si>
+  <si>
+    <t>human_tRNA_set</t>
+  </si>
+  <si>
+    <t>human_tRNA_nr_set</t>
+  </si>
+  <si>
+    <t>HHH</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>NNN</t>
+  </si>
+  <si>
+    <t>OOO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>atom_set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1007,6 +1031,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1350,12 +1380,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1711,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1727,9 +1758,10 @@
     <col min="6" max="6" width="13.83203125" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>214</v>
       </c>
@@ -1754,8 +1786,17 @@
       <c r="H1" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1780,8 +1821,17 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1803,8 +1853,17 @@
       <c r="H3" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1829,8 +1888,17 @@
       <c r="H4" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -1855,8 +1923,17 @@
       <c r="H5" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1881,8 +1958,17 @@
       <c r="H6" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1904,8 +1990,17 @@
       <c r="H7" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1924,8 +2019,17 @@
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1947,8 +2051,17 @@
       <c r="H9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1967,8 +2080,17 @@
       <c r="G10" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1987,8 +2109,17 @@
       <c r="G11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2007,8 +2138,17 @@
       <c r="G12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2027,8 +2167,17 @@
       <c r="G13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2044,8 +2193,17 @@
       <c r="G14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>188</v>
       </c>
@@ -2061,8 +2219,17 @@
       <c r="G15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>189</v>
       </c>
@@ -2078,8 +2245,17 @@
       <c r="G16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>190</v>
       </c>
@@ -2098,8 +2274,17 @@
       <c r="G17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -2115,8 +2300,17 @@
       <c r="G18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2132,8 +2326,17 @@
       <c r="G19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2149,8 +2352,14 @@
       <c r="G20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2166,8 +2375,14 @@
       <c r="F21" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2183,8 +2398,14 @@
       <c r="F22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2200,8 +2421,14 @@
       <c r="F23" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I23" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2217,8 +2444,14 @@
       <c r="F24" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -2234,8 +2467,14 @@
       <c r="F25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2251,8 +2490,14 @@
       <c r="F26" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2265,8 +2510,14 @@
       <c r="F27" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -2279,8 +2530,12 @@
       <c r="D28" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I28" s="3"/>
+      <c r="K28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -2293,8 +2548,11 @@
       <c r="D29" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -2304,8 +2562,11 @@
       <c r="D30" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>192</v>
       </c>
@@ -2315,8 +2576,11 @@
       <c r="D31" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>193</v>
       </c>
@@ -2326,8 +2590,11 @@
       <c r="D32" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>194</v>
       </c>
@@ -2337,8 +2604,11 @@
       <c r="D33" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>195</v>
       </c>
@@ -2351,8 +2621,11 @@
       <c r="D34" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>196</v>
       </c>
@@ -2365,8 +2638,11 @@
       <c r="D35" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>197</v>
       </c>
@@ -2376,8 +2652,11 @@
       <c r="D36" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -2390,8 +2669,11 @@
       <c r="D37" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -2401,8 +2683,11 @@
       <c r="D38" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K38" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -2415,8 +2700,11 @@
       <c r="D39" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>198</v>
       </c>
@@ -2426,8 +2714,11 @@
       <c r="D40" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -2440,8 +2731,11 @@
       <c r="D41" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -2451,8 +2745,11 @@
       <c r="D42" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -2462,8 +2759,11 @@
       <c r="D43" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K43" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -2473,8 +2773,11 @@
       <c r="D44" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -2487,8 +2790,11 @@
       <c r="D45" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -2498,8 +2804,11 @@
       <c r="D46" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -2509,8 +2818,11 @@
       <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -2520,8 +2832,11 @@
       <c r="D48" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K48" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -2531,8 +2846,11 @@
       <c r="D49" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>199</v>
       </c>
@@ -2542,8 +2860,11 @@
       <c r="D50" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>200</v>
       </c>
@@ -2556,8 +2877,11 @@
       <c r="D51" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K51" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>201</v>
       </c>
@@ -2567,8 +2891,11 @@
       <c r="D52" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K52" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>202</v>
       </c>
@@ -2581,8 +2908,11 @@
       <c r="D53" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K53" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>203</v>
       </c>
@@ -2592,8 +2922,11 @@
       <c r="D54" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K54" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -2603,8 +2936,11 @@
       <c r="D55" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K55" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -2614,8 +2950,11 @@
       <c r="D56" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K56" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -2625,8 +2964,11 @@
       <c r="D57" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K57" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -2636,8 +2978,11 @@
       <c r="D58" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -2650,8 +2995,11 @@
       <c r="D59" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>99</v>
       </c>
@@ -2661,8 +3009,11 @@
       <c r="D60" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K60" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -2675,8 +3026,11 @@
       <c r="D61" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K61" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -2686,8 +3040,11 @@
       <c r="D62" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K62" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -2697,8 +3054,11 @@
       <c r="D63" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K63" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>107</v>
       </c>
@@ -2708,8 +3068,11 @@
       <c r="D64" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K64" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -2722,8 +3085,11 @@
       <c r="D65" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K65" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -2736,8 +3102,11 @@
       <c r="D66" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K66" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>113</v>
       </c>
@@ -2750,8 +3119,11 @@
       <c r="D67" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K67" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -2761,8 +3133,11 @@
       <c r="D68" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K68" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>117</v>
       </c>
@@ -2775,8 +3150,11 @@
       <c r="D69" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K69" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>119</v>
       </c>
@@ -2786,8 +3164,11 @@
       <c r="D70" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K70" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>121</v>
       </c>
@@ -2800,8 +3181,11 @@
       <c r="D71" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K71" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>123</v>
       </c>
@@ -2814,8 +3198,11 @@
       <c r="D72" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K72" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>125</v>
       </c>
@@ -2828,8 +3215,11 @@
       <c r="D73" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K73" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>127</v>
       </c>
@@ -2839,8 +3229,11 @@
       <c r="D74" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K74" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>129</v>
       </c>
@@ -2853,8 +3246,11 @@
       <c r="D75" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K75" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>131</v>
       </c>
@@ -2867,8 +3263,11 @@
       <c r="D76" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K76" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>133</v>
       </c>
@@ -2881,8 +3280,11 @@
       <c r="D77" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K77" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>135</v>
       </c>
@@ -2892,8 +3294,11 @@
       <c r="D78" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K78" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>137</v>
       </c>
@@ -2906,8 +3311,11 @@
       <c r="D79" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K79" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>139</v>
       </c>
@@ -2920,8 +3328,11 @@
       <c r="D80" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K80" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>141</v>
       </c>
@@ -2931,8 +3342,11 @@
       <c r="D81" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K81" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>143</v>
       </c>
@@ -2942,8 +3356,11 @@
       <c r="D82" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K82" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>204</v>
       </c>
@@ -2953,8 +3370,11 @@
       <c r="D83" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K83" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>205</v>
       </c>
@@ -2967,8 +3387,11 @@
       <c r="D84" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K84" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>206</v>
       </c>
@@ -2978,8 +3401,11 @@
       <c r="D85" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K85" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>207</v>
       </c>
@@ -2989,8 +3415,11 @@
       <c r="D86" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K86" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>208</v>
       </c>
@@ -3000,8 +3429,11 @@
       <c r="D87" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K87" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>209</v>
       </c>
@@ -3014,8 +3446,11 @@
       <c r="D88" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K88" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>210</v>
       </c>
@@ -3028,8 +3463,11 @@
       <c r="D89" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K89" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>211</v>
       </c>
@@ -3039,8 +3477,11 @@
       <c r="D90" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K90" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>153</v>
       </c>
@@ -3050,8 +3491,11 @@
       <c r="D91" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K91" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>155</v>
       </c>
@@ -3064,8 +3508,11 @@
       <c r="D92" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K92" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>157</v>
       </c>
@@ -3075,8 +3522,11 @@
       <c r="D93" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K93" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>159</v>
       </c>
@@ -3086,8 +3536,11 @@
       <c r="D94" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K94" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>161</v>
       </c>
@@ -3097,8 +3550,11 @@
       <c r="D95" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K95" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>163</v>
       </c>
@@ -3111,8 +3567,11 @@
       <c r="D96" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K96" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>165</v>
       </c>
@@ -3122,8 +3581,11 @@
       <c r="D97" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K97" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>167</v>
       </c>
@@ -3136,8 +3598,11 @@
       <c r="D98" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K98" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>169</v>
       </c>
@@ -3147,8 +3612,11 @@
       <c r="D99" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K99" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>171</v>
       </c>
@@ -3161,8 +3629,11 @@
       <c r="D100" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K100" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>173</v>
       </c>
@@ -3175,8 +3646,11 @@
       <c r="D101" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K101" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>175</v>
       </c>
@@ -3186,8 +3660,11 @@
       <c r="D102" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K102" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>177</v>
       </c>
@@ -3200,8 +3677,11 @@
       <c r="D103" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K103" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>212</v>
       </c>
@@ -3214,8 +3694,11 @@
       <c r="D104" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K104" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>180</v>
       </c>
@@ -3228,8 +3711,11 @@
       <c r="D105" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K105" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>182</v>
       </c>
@@ -3242,8 +3728,11 @@
       <c r="D106" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K106" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -3253,8 +3742,11 @@
       <c r="D107" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K107" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>185</v>
       </c>
@@ -3263,6 +3755,9 @@
       </c>
       <c r="D108" s="1" t="s">
         <v>219</v>
+      </c>
+      <c r="K108" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
